--- a/target/test-classes/Data/Data.xlsx
+++ b/target/test-classes/Data/Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="73">
   <si>
     <t>FirstName</t>
   </si>
@@ -99,9 +99,6 @@
     <t>9876543210</t>
   </si>
   <si>
-    <t>Shiyam234@gmail.com</t>
-  </si>
-  <si>
     <t>abcd$d1234</t>
   </si>
   <si>
@@ -238,6 +235,18 @@
   </si>
   <si>
     <t>TestType</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>stephen2449@gmail.com</t>
+  </si>
+  <si>
+    <t>Stephen@2449</t>
   </si>
 </sst>
 </file>
@@ -585,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
@@ -593,8 +602,8 @@
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
@@ -625,19 +634,19 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>21</v>
@@ -743,10 +752,10 @@
         <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>22</v>
@@ -801,59 +810,59 @@
         <v>20</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -893,10 +902,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -923,7 +932,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>20</v>
@@ -931,18 +940,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -955,7 +964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:M5"/>
     </sheetView>
   </sheetViews>
@@ -977,207 +986,207 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="M1" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" t="s">
         <v>57</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>58</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="L2" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" t="s">
         <v>57</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="M4" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="H5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
